--- a/public/templates/osi.xlsx
+++ b/public/templates/osi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DD1761-25EB-42DC-BEF2-72862305635D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79A32F3-2F72-4C21-832F-192F778B6406}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="1725" windowWidth="13050" windowHeight="11835" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -839,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -915,16 +915,160 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -939,200 +1083,53 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1527,8 +1524,8 @@
   </sheetPr>
   <dimension ref="A2:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:S32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" workbookViewId="0">
+      <selection activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1585,73 +1582,73 @@
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="9"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="9"/>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="U6" s="96" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="U6" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="97"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="84"/>
       <c r="AB6" s="9"/>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1675,69 +1672,69 @@
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
       <c r="U8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="X8" s="95" t="s">
+      <c r="X8" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="47"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="86"/>
       <c r="AB8" s="9"/>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="U9" s="45" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="U9" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="46" t="s">
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="47"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="86"/>
       <c r="AB9" s="9"/>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1746,101 +1743,101 @@
       <c r="U10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X10" s="46" t="s">
+      <c r="X10" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="47"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="86"/>
       <c r="AB10" s="9"/>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="U11" s="45" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="U11" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="46" t="s">
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="47"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="86"/>
       <c r="AB11" s="9"/>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
       <c r="U12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X12" s="46" t="s">
+      <c r="X12" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="47"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="86"/>
       <c r="AB12" s="9"/>
     </row>
     <row r="13" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="9"/>
     </row>
@@ -1868,222 +1865,222 @@
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="82"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="42"/>
       <c r="S15" s="18"/>
       <c r="T15" s="19"/>
-      <c r="U15" s="32" t="s">
+      <c r="U15" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="27"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="9"/>
     </row>
     <row r="16" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
       <c r="S16" s="18"/>
       <c r="T16" s="19"/>
-      <c r="U16" s="41" t="s">
+      <c r="U16" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="27"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="9"/>
     </row>
     <row r="17" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="91"/>
       <c r="T17" s="19"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="27"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="9"/>
     </row>
     <row r="18" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="37"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="91"/>
       <c r="T18" s="19"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="27"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="9"/>
     </row>
     <row r="19" spans="1:28" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="94"/>
       <c r="T19" s="19"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="27"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="9"/>
     </row>
     <row r="20" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="79"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="37"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="59" t="s">
+      <c r="U20" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="27"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="9"/>
     </row>
     <row r="21" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="62"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="66"/>
       <c r="T21" s="19"/>
-      <c r="U21" s="70" t="s">
+      <c r="U21" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="72"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="76"/>
       <c r="AB21" s="9"/>
     </row>
     <row r="22" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2117,113 +2114,113 @@
     </row>
     <row r="23" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="67" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="54" t="s">
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="54" t="s">
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="V23" s="54"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="57" t="s">
+      <c r="V23" s="55"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="54" t="s">
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AA23" s="28" t="s">
+      <c r="AA23" s="77" t="s">
         <v>12</v>
       </c>
       <c r="AB23" s="9"/>
     </row>
     <row r="24" spans="1:28" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="93"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="78"/>
       <c r="AB24" s="9"/>
     </row>
     <row r="25" spans="1:28" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91" t="s">
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="92" t="s">
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92" t="s">
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Y25" s="92"/>
+      <c r="Y25" s="34"/>
       <c r="Z25" s="20" t="s">
         <v>37</v>
       </c>
@@ -2329,94 +2326,94 @@
     </row>
     <row r="29" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="85" t="s">
+      <c r="U29" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="V29" s="85"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="85"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
       <c r="AA29" s="22"/>
       <c r="AB29" s="9"/>
     </row>
     <row r="30" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="85" t="s">
+      <c r="U30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="V30" s="85"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="85"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
       <c r="AA30" s="22"/>
       <c r="AB30" s="9"/>
     </row>
     <row r="31" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
       <c r="T31" s="6"/>
       <c r="U31" s="11"/>
       <c r="AA31" s="5"/>
@@ -2424,24 +2421,24 @@
     </row>
     <row r="32" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
       <c r="T32" s="6"/>
       <c r="U32" s="11"/>
       <c r="AA32" s="5"/>
@@ -2449,26 +2446,26 @@
     </row>
     <row r="33" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="75"/>
-      <c r="S33" s="75"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
       <c r="T33" s="6"/>
       <c r="U33" s="11"/>
       <c r="AA33" s="5"/>
@@ -2476,26 +2473,26 @@
     </row>
     <row r="34" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
       <c r="T34" s="6"/>
       <c r="U34" s="11"/>
       <c r="AA34" s="5"/>
@@ -2518,65 +2515,86 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="85"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="85"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="85"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
       <c r="AA36" s="22"/>
       <c r="AB36" s="9"/>
     </row>
     <row r="37" spans="1:28" s="12" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="83"/>
-      <c r="T37" s="83"/>
-      <c r="U37" s="83"/>
-      <c r="V37" s="83"/>
-      <c r="W37" s="83"/>
-      <c r="X37" s="83"/>
-      <c r="Y37" s="83"/>
-      <c r="Z37" s="83"/>
-      <c r="AA37" s="84"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="44"/>
       <c r="AB37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B29:S29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="C4:R6"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:R19"/>
+    <mergeCell ref="U16:AA19"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:S9"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="H23:T24"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U23:W24"/>
+    <mergeCell ref="X23:Y24"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="Z23:Z24"/>
     <mergeCell ref="X25:Y25"/>
     <mergeCell ref="B20:R20"/>
     <mergeCell ref="B13:R13"/>
@@ -2593,32 +2611,11 @@
     <mergeCell ref="B26:AA26"/>
     <mergeCell ref="B27:AA27"/>
     <mergeCell ref="U28:Z28"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U23:W24"/>
-    <mergeCell ref="X23:Y24"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D23:G24"/>
-    <mergeCell ref="H23:T24"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="C4:R6"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:R19"/>
-    <mergeCell ref="U16:AA19"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:S9"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B29:S29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="U25:W25"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/public/templates/osi.xlsx
+++ b/public/templates/osi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79A32F3-2F72-4C21-832F-192F778B6406}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3C0327-516F-4833-AEA9-D950D7A99AA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Date :</t>
   </si>
@@ -915,6 +915,201 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -935,201 +1130,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1525,7 +1525,7 @@
   <dimension ref="A2:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1582,73 +1582,73 @@
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="9"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="9"/>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="U6" s="83" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="U6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="84"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="43"/>
       <c r="AB6" s="9"/>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1672,69 +1672,69 @@
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
       <c r="U8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="X8" s="85" t="s">
+      <c r="X8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="86"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="45"/>
       <c r="AB8" s="9"/>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="U9" s="54" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="U9" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="87" t="s">
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="86"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="45"/>
       <c r="AB9" s="9"/>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1743,101 +1743,101 @@
       <c r="U10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X10" s="87" t="s">
+      <c r="X10" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="86"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="45"/>
       <c r="AB10" s="9"/>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="U11" s="54" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="U11" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="87" t="s">
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="86"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="45"/>
       <c r="AB11" s="9"/>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
       <c r="U12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X12" s="87" t="s">
+      <c r="X12" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="86"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="45"/>
       <c r="AB12" s="9"/>
     </row>
     <row r="13" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="9"/>
     </row>
@@ -1865,222 +1865,222 @@
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="42"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="81"/>
       <c r="S15" s="18"/>
       <c r="T15" s="19"/>
-      <c r="U15" s="80" t="s">
+      <c r="U15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="82"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="30"/>
       <c r="AB15" s="9"/>
     </row>
     <row r="16" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
       <c r="S16" s="18"/>
       <c r="T16" s="19"/>
-      <c r="U16" s="95" t="s">
+      <c r="U16" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="96"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="38"/>
       <c r="AB16" s="9"/>
     </row>
     <row r="17" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="91"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="33"/>
       <c r="T17" s="19"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="96"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="38"/>
       <c r="AB17" s="9"/>
     </row>
     <row r="18" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="91"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
       <c r="T18" s="19"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="96"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="38"/>
       <c r="AB18" s="9"/>
     </row>
     <row r="19" spans="1:28" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="94"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="36"/>
       <c r="T19" s="19"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="98"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="40"/>
       <c r="AB19" s="9"/>
     </row>
     <row r="20" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="37"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="78"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="62" t="s">
+      <c r="U20" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="64"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="74"/>
       <c r="AB20" s="9"/>
     </row>
     <row r="21" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="66"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="52"/>
       <c r="T21" s="19"/>
-      <c r="U21" s="74" t="s">
+      <c r="U21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="76"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="67"/>
       <c r="AB21" s="9"/>
     </row>
     <row r="22" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2114,113 +2114,113 @@
     </row>
     <row r="23" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="71" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="55" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="55" t="s">
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="V23" s="55"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="60" t="s">
+      <c r="V23" s="58"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="55" t="s">
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AA23" s="77" t="s">
+      <c r="AA23" s="68" t="s">
         <v>12</v>
       </c>
       <c r="AB23" s="9"/>
     </row>
     <row r="24" spans="1:28" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="78"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="69"/>
       <c r="AB24" s="9"/>
     </row>
     <row r="25" spans="1:28" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="95"/>
+      <c r="D25" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33" t="s">
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="34" t="s">
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34" t="s">
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="Y25" s="34"/>
+      <c r="Y25" s="75"/>
       <c r="Z25" s="20" t="s">
         <v>37</v>
       </c>
@@ -2231,63 +2231,63 @@
     </row>
     <row r="26" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="50"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="88"/>
       <c r="AB26" s="9"/>
     </row>
     <row r="27" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="52"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="90"/>
       <c r="AB27" s="9"/>
     </row>
     <row r="28" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2311,14 +2311,14 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
-      <c r="U28" s="53" t="s">
+      <c r="U28" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="91"/>
       <c r="AA28" s="24" t="s">
         <v>46</v>
       </c>
@@ -2326,94 +2326,96 @@
     </row>
     <row r="29" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="45" t="s">
+      <c r="U29" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="84"/>
       <c r="AA29" s="22"/>
       <c r="AB29" s="9"/>
     </row>
     <row r="30" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="45" t="s">
+      <c r="U30" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="22"/>
+      <c r="V30" s="84"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="84"/>
+      <c r="AA30" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="AB30" s="9"/>
     </row>
     <row r="31" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
       <c r="T31" s="6"/>
       <c r="U31" s="11"/>
       <c r="AA31" s="5"/>
@@ -2421,24 +2423,24 @@
     </row>
     <row r="32" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
       <c r="T32" s="6"/>
       <c r="U32" s="11"/>
       <c r="AA32" s="5"/>
@@ -2446,26 +2448,26 @@
     </row>
     <row r="33" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
       <c r="T33" s="6"/>
       <c r="U33" s="11"/>
       <c r="AA33" s="5"/>
@@ -2473,26 +2475,26 @@
     </row>
     <row r="34" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
       <c r="T34" s="6"/>
       <c r="U34" s="11"/>
       <c r="AA34" s="5"/>
@@ -2515,60 +2517,91 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
+      <c r="U36" s="84"/>
+      <c r="V36" s="84"/>
+      <c r="W36" s="84"/>
+      <c r="X36" s="84"/>
+      <c r="Y36" s="84"/>
+      <c r="Z36" s="84"/>
       <c r="AA36" s="22"/>
       <c r="AB36" s="9"/>
     </row>
     <row r="37" spans="1:28" s="12" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="43"/>
-      <c r="AA37" s="44"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="82"/>
+      <c r="AA37" s="83"/>
       <c r="AB37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B26:AA26"/>
+    <mergeCell ref="B27:AA27"/>
+    <mergeCell ref="U28:Z28"/>
+    <mergeCell ref="B29:S29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="B37:AA37"/>
+    <mergeCell ref="U29:Z29"/>
+    <mergeCell ref="U30:Z30"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="U36:Z36"/>
+    <mergeCell ref="B30:S30"/>
+    <mergeCell ref="B31:S32"/>
+    <mergeCell ref="B33:S33"/>
+    <mergeCell ref="B34:S34"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D23:G24"/>
+    <mergeCell ref="H23:T24"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="U23:W24"/>
+    <mergeCell ref="X23:Y24"/>
     <mergeCell ref="C4:R6"/>
     <mergeCell ref="U15:AA15"/>
     <mergeCell ref="B16:R19"/>
@@ -2584,38 +2617,7 @@
     <mergeCell ref="B9:S9"/>
     <mergeCell ref="B11:R11"/>
     <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D23:G24"/>
-    <mergeCell ref="H23:T24"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="AA23:AA24"/>
     <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U23:W24"/>
-    <mergeCell ref="X23:Y24"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B37:AA37"/>
-    <mergeCell ref="U29:Z29"/>
-    <mergeCell ref="U30:Z30"/>
-    <mergeCell ref="I36:O36"/>
-    <mergeCell ref="U36:Z36"/>
-    <mergeCell ref="B30:S30"/>
-    <mergeCell ref="B31:S32"/>
-    <mergeCell ref="B33:S33"/>
-    <mergeCell ref="B34:S34"/>
-    <mergeCell ref="B26:AA26"/>
-    <mergeCell ref="B27:AA27"/>
-    <mergeCell ref="U28:Z28"/>
-    <mergeCell ref="B29:S29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="U25:W25"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
